--- a/SIGOFCv3/Archivos/Plantilla/CapacitacionParticipantes_v3.xlsx
+++ b/SIGOFCv3/Archivos/Plantilla/CapacitacionParticipantes_v3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20405"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94024AC9-AEAA-4D70-8BBB-D81E87ED1C3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64406F25-26B5-4C9B-B28A-5E4B06DA583F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="1943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1944">
   <si>
     <t>OBSERVACION</t>
   </si>
@@ -5858,6 +5858,9 @@
   </si>
   <si>
     <t>Paococha (LORETO-UCAYALI-PADRE MARQUEZ)</t>
+  </si>
+  <si>
+    <t>Nueva Unión (UCAYALI-CORONEL PORTILLO-IPARÍA)</t>
   </si>
 </sst>
 </file>
@@ -6387,9 +6390,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Dato inválido" error="Seleccione del listado" xr:uid="{ECCC55BC-FDD7-4FAC-94A4-9DBC5452FD9D}">
           <x14:formula1>
-            <xm:f>Hoja3!$C$1:$C$1759</xm:f>
+            <xm:f>Hoja3!$C$1:$C$1760</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J1245</xm:sqref>
+          <xm:sqref>J2:J1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6399,11 +6402,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1759"/>
+  <dimension ref="A1:E1760"/>
   <sheetViews>
-    <sheetView topLeftCell="A1726" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14980,616 +14981,621 @@
     </row>
     <row r="1637" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1637" t="s">
-        <v>1571</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1638" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1638" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="1639" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1639" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1640" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1640" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1641" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1641" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1642" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1642" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="1643" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1643" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1644" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1644" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1645" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1645" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1646" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1646" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="1647" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1647" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="1648" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1648" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1649" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1649" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1650" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1650" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1651" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1651" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="1652" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1652" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1653" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1653" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1654" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1654" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1655" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1655" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1656" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1656" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1657" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1657" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1658" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1658" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1659" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1659" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1660" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1660" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1661" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1661" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1662" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1662" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1663" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1663" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1664" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1664" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1665" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1665" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1666" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1666" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1667" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1667" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1668" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1668" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1669" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1669" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1670" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1670" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1671" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1671" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1672" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1672" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1673" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1673" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1674" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1674" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1675" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1675" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1676" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1676" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1677" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1677" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1678" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1678" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1679" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1679" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1680" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1680" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1681" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1681" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1682" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1682" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1683" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1683" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1684" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1684" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1685" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1685" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1686" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1686" t="s">
-        <v>1941</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1687" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1687" t="s">
-        <v>1620</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1688" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1688" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1689" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1689" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1690" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1690" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1691" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1691" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1692" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1692" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1693" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1693" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1694" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1694" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1695" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1695" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1696" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1696" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1697" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1697" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1698" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1698" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1699" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1699" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1700" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1700" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1701" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1701" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1702" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1702" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1703" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1703" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1704" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1704" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1705" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1705" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1706" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1706" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1707" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1707" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1708" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1708" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1709" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1709" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1710" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1710" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1711" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1711" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1712" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1712" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1713" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1713" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1714" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1714" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1715" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1715" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1716" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1716" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1717" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1717" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1718" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1718" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1719" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1719" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1720" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1720" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1721" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1721" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1722" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1722" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1723" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1723" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1724" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1724" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1725" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1725" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1726" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1726" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1727" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1727" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1728" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1728" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1729" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1729" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1730" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1730" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1731" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1731" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1732" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1732" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1733" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1733" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1734" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1734" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1735" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1735" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1736" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1736" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1737" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1737" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1738" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1738" t="s">
-        <v>1666</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1739" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1739" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1740" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1740" t="s">
-        <v>1673</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="1741" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1741" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1742" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1742" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1743" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1743" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="1744" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1744" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1745" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1745" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1746" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1746" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1747" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1747" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1748" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1748" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1749" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1749" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1750" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1750" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1751" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1751" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="1752" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1752" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1753" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1753" t="s">
-        <v>1680</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1754" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1754" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1755" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1755" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1756" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1756" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1757" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1757" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1758" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1758" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1759" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1759" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1760" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1760" t="s">
         <v>1692</v>
       </c>
     </row>

--- a/SIGOFCv3/Archivos/Plantilla/CapacitacionParticipantes_v3.xlsx
+++ b/SIGOFCv3/Archivos/Plantilla/CapacitacionParticipantes_v3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20405"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64406F25-26B5-4C9B-B28A-5E4B06DA583F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC62A2F8-3028-412D-A566-1CEB651497CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="1945">
   <si>
     <t>OBSERVACION</t>
   </si>
@@ -5587,9 +5587,6 @@
     <t>San Jose de Sarapanga (LORETO-MAYNAS-NAUTA)</t>
   </si>
   <si>
-    <t>Murui-Muinani (LORETO-PUTUMAYO-BELETENIENTE MANUEL CLAVERON)</t>
-  </si>
-  <si>
     <t>8 de diciembre (LORETO-PUTUMAYO-PUTUMAYO)</t>
   </si>
   <si>
@@ -5861,6 +5858,12 @@
   </si>
   <si>
     <t>Nueva Unión (UCAYALI-CORONEL PORTILLO-IPARÍA)</t>
+  </si>
+  <si>
+    <t>Murui-Muinani (LORETO-PUTUMAYO-TENIENTE MANUEL CLAVERO)</t>
+  </si>
+  <si>
+    <t>San Martin de Porres (LORETO-PUTUMAYO-TENIENTE MANUEL CLAVERO)</t>
   </si>
 </sst>
 </file>
@@ -6390,7 +6393,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Dato inválido" error="Seleccione del listado" xr:uid="{ECCC55BC-FDD7-4FAC-94A4-9DBC5452FD9D}">
           <x14:formula1>
-            <xm:f>Hoja3!$C$1:$C$1760</xm:f>
+            <xm:f>Hoja3!$C$1:$C$1762</xm:f>
           </x14:formula1>
           <xm:sqref>J2:J1048576</xm:sqref>
         </x14:dataValidation>
@@ -6402,9 +6405,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1760"/>
+  <dimension ref="A1:E1761"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A1722" workbookViewId="0">
+      <selection activeCell="C1117" sqref="C1117"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12371,432 +12376,432 @@
     </row>
     <row r="1115" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1115" t="s">
-        <v>1873</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1116" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1116" t="s">
-        <v>1874</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1117" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1117" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1118" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1118" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1119" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1119" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1120" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1120" t="s">
-        <v>1133</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1121" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1121" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1122" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1122" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1123" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1123" t="s">
-        <v>1878</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1124" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1124" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1125" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1125" t="s">
-        <v>1135</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1126" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1126" t="s">
-        <v>1880</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1127" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1127" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1128" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1128" t="s">
-        <v>1136</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1129" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1129" t="s">
-        <v>1882</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1130" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1130" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1131" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1131" t="s">
-        <v>1137</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1132" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1132" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1133" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1133" t="s">
-        <v>1884</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1134" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1134" t="s">
-        <v>1139</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1135" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1135" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1136" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1136" t="s">
-        <v>1885</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1137" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1137" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1138" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1138" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1139" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1139" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1140" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1140" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1141" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1141" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1142" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1142" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1143" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1143" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1144" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1144" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1145" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1145" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1146" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1146" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1147" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1147" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1148" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1148" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1149" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1149" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1150" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1150" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1151" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1151" t="s">
-        <v>1141</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1152" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1152" t="s">
-        <v>1900</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1153" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1153" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1154" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1154" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1155" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1155" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1156" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1156" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1157" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1157" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1158" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1158" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1159" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1159" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1160" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1160" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1161" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1161" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1162" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1162" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1163" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1163" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1164" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1164" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1165" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1165" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1166" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1166" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1167" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1167" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1168" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1168" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1169" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1169" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1170" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1170" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1171" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1171" t="s">
-        <v>1142</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1172" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1172" t="s">
-        <v>1916</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1173" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1173" t="s">
-        <v>1143</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1174" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1174" t="s">
-        <v>1917</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1175" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1175" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1176" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1176" t="s">
-        <v>1144</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1177" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1177" t="s">
-        <v>1919</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1178" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1178" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1179" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1179" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1180" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1180" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1181" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1181" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1182" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1182" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1183" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1183" t="s">
-        <v>1146</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1184" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1184" t="s">
-        <v>1924</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1185" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1185" t="s">
-        <v>1145</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="1186" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1186" t="s">
-        <v>1925</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1187" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1187" t="s">
-        <v>1147</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1188" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1188" t="s">
-        <v>1926</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1189" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1189" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1190" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1190" t="s">
-        <v>1148</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1191" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1191" t="s">
-        <v>1928</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1192" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1192" t="s">
-        <v>1149</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1193" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1193" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1194" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1194" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1195" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1195" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1196" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1196" t="s">
-        <v>1929</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1197" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1197" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1198" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1198" t="s">
-        <v>1153</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1199" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1199" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1200" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1200" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1201" spans="3:3" x14ac:dyDescent="0.3">
@@ -12806,2796 +12811,2801 @@
     </row>
     <row r="1202" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1202" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1203" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1203" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1204" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1204" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1205" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1205" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1206" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1206" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1207" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1207" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1208" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1208" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1209" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1209" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1210" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1210" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1211" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1211" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1212" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1212" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1213" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1213" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1214" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1214" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1215" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1215" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1216" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1216" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1217" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1217" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1218" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1218" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1219" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1219" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1220" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1220" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1221" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1221" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1222" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1222" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1223" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1223" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1224" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1224" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1225" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1225" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1226" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1226" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1227" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1227" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1228" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1228" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1229" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1229" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1230" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1230" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1231" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1231" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1232" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1232" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1233" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1233" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1234" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1234" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1235" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1235" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1236" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1236" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1237" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1237" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1238" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1238" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1239" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1239" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1240" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1240" t="s">
-        <v>1931</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1241" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1241" t="s">
-        <v>1194</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1242" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1242" t="s">
-        <v>1942</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1243" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1243" t="s">
-        <v>1195</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1244" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1244" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1245" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1245" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1246" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1246" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1247" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1247" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1248" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1248" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1249" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1249" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1250" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1250" t="s">
-        <v>1932</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1251" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1251" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1252" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1252" t="s">
-        <v>1202</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1253" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1253" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1254" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1254" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1255" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1255" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1256" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1256" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1257" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1257" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1258" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1258" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1259" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1259" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1260" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1260" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1261" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1261" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1262" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1262" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1263" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1263" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1264" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1264" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1265" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1265" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1266" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1266" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1267" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1267" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1268" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1268" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1269" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1269" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1270" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1270" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1271" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1271" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1272" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1272" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1273" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1273" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1274" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1274" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1275" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1275" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1276" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1276" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1277" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1277" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1278" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1278" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1279" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1279" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1280" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1280" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1281" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1281" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1282" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1282" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1283" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1283" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1284" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1284" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1285" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1285" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1286" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1286" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1287" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1287" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1288" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1288" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1289" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1289" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1290" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1290" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1291" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1291" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1292" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1292" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1293" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1293" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1294" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1294" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1295" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1295" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1296" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1296" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1297" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1297" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1298" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1298" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1299" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1299" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1300" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1300" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1301" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1301" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1302" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1302" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1303" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1303" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1304" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1304" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1305" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1305" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1306" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1306" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1307" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1307" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1308" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1308" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1309" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1309" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1310" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1310" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1311" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1311" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1312" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1312" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1313" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1313" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1314" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1314" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1315" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1315" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1316" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1316" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1317" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1317" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1318" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1318" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1319" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1319" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1320" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1320" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1321" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1321" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1322" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1322" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1323" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1323" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1324" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1324" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1325" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1325" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1326" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1326" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1327" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1327" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1328" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1328" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1329" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1329" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1330" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1330" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1331" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1331" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1332" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1332" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1333" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1333" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1334" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1334" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1335" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1335" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1336" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1336" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1337" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1337" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1338" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1338" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1339" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1339" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1340" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1340" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1341" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1341" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1342" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1342" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1343" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1343" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1344" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1344" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1345" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1345" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1346" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1346" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1347" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1347" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1348" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1348" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1349" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1349" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1350" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1350" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1351" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1351" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1352" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1352" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1353" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1353" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1354" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1354" t="s">
-        <v>1302</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1355" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1355" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1356" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1356" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1357" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1357" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1358" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1358" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1359" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1359" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1360" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1360" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1361" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1361" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1362" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1362" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1363" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1363" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1364" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1364" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1365" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1365" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1366" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1366" t="s">
-        <v>1310</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1367" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1367" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1368" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1368" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1369" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1369" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1370" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1370" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1371" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1371" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1372" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1372" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1373" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1373" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1374" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1374" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1375" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1375" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1376" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1376" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1377" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1377" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1378" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1378" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="1379" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1379" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1380" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1380" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1381" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1381" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1382" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1382" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1383" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1383" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1384" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1384" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1385" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1385" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1386" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1386" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1387" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1387" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1388" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1388" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1389" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1389" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1390" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1390" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="1391" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1391" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1392" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1392" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1393" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1393" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="1394" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1394" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1395" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1395" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1396" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1396" t="s">
-        <v>1934</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="1397" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1397" t="s">
-        <v>1795</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1398" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1398" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1399" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1399" t="s">
-        <v>1935</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1400" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1400" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1401" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1401" t="s">
-        <v>1794</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1402" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1402" t="s">
-        <v>1799</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="1403" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1403" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1404" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1404" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1405" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1405" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1406" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1406" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="1407" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1407" t="s">
-        <v>1346</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1408" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1408" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1409" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1409" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1410" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1410" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1411" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1411" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1412" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1412" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1413" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1413" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1414" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1414" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1415" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1415" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1416" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1416" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="1417" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1417" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1418" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1418" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1419" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1419" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1420" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1420" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="1421" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1421" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1422" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1422" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1423" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1423" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="1424" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1424" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="1425" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1425" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="1426" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1426" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="1427" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1427" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1428" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1428" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="1429" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1429" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="1430" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1430" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1431" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1431" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="1432" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1432" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="1433" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1433" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1434" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1434" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="1435" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1435" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1436" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1436" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1437" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1437" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1438" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1438" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1439" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1439" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="1440" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1440" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1441" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1441" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="1442" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1442" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="1443" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1443" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1444" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1444" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="1445" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1445" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="1446" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1446" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="1447" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1447" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1448" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1448" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="1449" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1449" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1450" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1450" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="1451" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1451" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1452" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1452" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1453" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1453" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1454" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1454" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1455" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1455" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="1456" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1456" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1457" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1457" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1458" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1458" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1459" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1459" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1460" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1460" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1461" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1461" t="s">
-        <v>1409</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1462" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1462" t="s">
-        <v>1400</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="1463" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1463" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1464" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1464" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1465" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1465" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1466" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1466" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="1467" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1467" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="1468" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1468" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1469" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1469" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1470" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1470" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1471" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1471" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1472" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1472" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1473" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1473" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1474" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1474" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1475" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1475" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1476" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1476" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1477" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1477" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1478" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1478" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="1479" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1479" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1480" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1480" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1481" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1481" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="1482" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1482" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1483" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1483" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1484" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1484" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="1485" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1485" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1486" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1486" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="1487" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1487" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="1488" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1488" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1489" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1489" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1490" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1490" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1491" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1491" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="1492" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1492" t="s">
-        <v>1937</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1493" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1493" t="s">
-        <v>1431</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1494" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1494" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="1495" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1495" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1496" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1496" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1497" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1497" t="s">
-        <v>1938</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="1498" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1498" t="s">
-        <v>1435</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1499" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1499" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1500" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1500" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1501" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1501" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1502" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1502" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1503" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1503" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="1504" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1504" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1505" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1505" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1506" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1506" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1507" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1507" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1508" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1508" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1509" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1509" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1510" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1510" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1511" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1511" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1512" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1512" t="s">
-        <v>1465</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1513" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1513" t="s">
-        <v>1450</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1514" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1514" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1515" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1515" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1516" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1516" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1517" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1517" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1518" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1518" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1519" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1519" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1520" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1520" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1521" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1521" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1522" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1522" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1523" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1523" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1524" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1524" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1525" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1525" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1526" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1526" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1527" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1527" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1528" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1528" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1529" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1529" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1530" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1530" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1531" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1531" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1532" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1532" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1533" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1533" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1534" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1534" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1535" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1535" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1536" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1536" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1537" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1537" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1538" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1538" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1539" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1539" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1540" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1540" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1541" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1541" t="s">
-        <v>1439</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="1542" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1542" t="s">
-        <v>1479</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="1543" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1543" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="1544" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1544" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1545" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1545" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="1546" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1546" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="1547" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1547" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1548" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1548" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1549" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1549" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="1550" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1550" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="1551" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1551" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1552" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1552" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="1553" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1553" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="1554" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1554" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="1555" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1555" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1556" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1556" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="1557" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1557" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="1558" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1558" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="1559" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1559" t="s">
-        <v>1801</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1560" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1560" t="s">
-        <v>1496</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1561" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1561" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="1562" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1562" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1563" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1563" t="s">
-        <v>1503</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1564" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1564" t="s">
-        <v>1499</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="1565" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1565" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="1566" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1566" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="1567" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1567" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1568" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1568" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="1569" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1569" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1570" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1570" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1571" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1571" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1572" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1572" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1573" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1573" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="1574" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1574" t="s">
-        <v>1514</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="1575" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1575" t="s">
-        <v>1510</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1576" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1576" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1577" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1577" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="1578" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1578" t="s">
-        <v>1939</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="1579" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1579" t="s">
-        <v>1513</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1580" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1580" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1581" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1581" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1582" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1582" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="1583" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1583" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1584" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1584" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="1585" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1585" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="1586" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1586" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1587" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1587" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="1588" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1588" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="1589" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1589" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1590" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1590" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1591" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1591" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1592" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1592" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="1593" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1593" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="1594" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1594" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1595" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1595" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1596" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1596" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1597" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1597" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="1598" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1598" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1599" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1599" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1600" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1600" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="1601" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1601" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1602" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1602" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1603" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1603" t="s">
-        <v>1536</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="1604" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1604" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1605" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1605" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1606" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1606" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="1607" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1607" t="s">
-        <v>1940</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1608" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1608" t="s">
-        <v>1542</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1609" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1609" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1610" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1610" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1611" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1611" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="1612" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1612" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1613" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1613" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="1614" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1614" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="1615" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1615" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="1616" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1616" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="1617" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1617" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1618" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1618" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1619" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1619" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="1620" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1620" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1621" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1621" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1622" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1622" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="1623" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1623" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1624" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1624" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1625" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1625" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1626" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1626" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="1627" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1627" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1628" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1628" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1629" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1629" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="1630" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1630" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1631" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1631" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1632" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1632" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="1633" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1633" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="1634" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1634" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1635" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1635" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1636" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1636" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="1637" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1637" t="s">
-        <v>1943</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1638" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1638" t="s">
-        <v>1571</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1639" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1639" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="1640" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1640" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1641" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1641" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1642" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1642" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1643" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1643" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="1644" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1644" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1645" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1645" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1646" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1646" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1647" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1647" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="1648" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1648" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="1649" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1649" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1650" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1650" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1651" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1651" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1652" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1652" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="1653" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1653" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1654" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1654" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1655" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1655" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1656" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1656" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1657" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1657" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1658" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1658" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1659" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1659" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1660" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1660" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1661" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1661" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1662" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1662" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1663" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1663" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1664" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1664" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1665" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1665" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1666" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1666" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1667" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1667" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1668" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1668" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1669" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1669" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1670" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1670" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1671" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1671" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1672" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1672" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1673" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1673" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1674" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1674" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1675" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1675" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1676" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1676" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1677" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1677" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1678" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1678" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1679" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1679" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1680" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1680" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1681" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1681" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1682" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1682" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1683" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1683" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1684" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1684" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1685" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1685" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1686" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1686" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1687" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1687" t="s">
-        <v>1941</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1688" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1688" t="s">
-        <v>1620</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1689" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1689" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1690" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1690" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1691" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1691" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1692" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1692" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1693" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1693" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1694" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1694" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1695" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1695" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1696" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1696" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1697" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1697" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1698" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1698" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1699" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1699" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1700" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1700" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1701" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1701" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1702" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1702" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1703" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1703" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1704" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1704" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1705" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1705" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1706" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1706" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1707" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1707" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1708" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1708" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1709" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1709" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1710" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1710" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1711" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1711" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1712" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1712" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1713" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1713" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1714" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1714" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1715" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1715" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1716" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1716" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1717" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1717" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1718" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1718" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1719" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1719" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1720" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1720" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1721" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1721" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1722" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1722" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1723" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1723" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1724" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1724" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1725" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1725" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1726" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1726" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1727" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1727" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1728" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1728" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1729" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1729" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1730" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1730" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1731" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1731" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1732" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1732" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1733" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1733" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1734" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1734" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1735" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1735" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1736" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1736" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1737" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1737" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1738" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1738" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1739" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1739" t="s">
-        <v>1666</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1740" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1740" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1741" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1741" t="s">
-        <v>1673</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="1742" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1742" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1743" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1743" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1744" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1744" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="1745" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1745" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1746" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1746" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1747" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1747" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1748" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1748" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1749" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1749" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1750" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1750" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1751" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1751" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1752" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1752" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="1753" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1753" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1754" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1754" t="s">
-        <v>1680</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1755" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1755" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1756" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1756" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1757" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1757" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1758" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1758" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1759" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1759" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1760" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1760" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1761" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1761" t="s">
         <v>1692</v>
       </c>
     </row>

--- a/SIGOFCv3/Archivos/Plantilla/CapacitacionParticipantes_v3.xlsx
+++ b/SIGOFCv3/Archivos/Plantilla/CapacitacionParticipantes_v3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20405"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC62A2F8-3028-412D-A566-1CEB651497CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19270BB2-3F86-463C-B744-F23AF3E4FC57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="1945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="1946">
   <si>
     <t>OBSERVACION</t>
   </si>
@@ -5864,6 +5864,9 @@
   </si>
   <si>
     <t>San Martin de Porres (LORETO-PUTUMAYO-TENIENTE MANUEL CLAVERO)</t>
+  </si>
+  <si>
+    <t>Tsimepanko (UCAYALI-ATALAYA-TAHUANÍA)</t>
   </si>
 </sst>
 </file>
@@ -6405,10 +6408,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1761"/>
+  <dimension ref="A1:E1762"/>
   <sheetViews>
-    <sheetView topLeftCell="A1722" workbookViewId="0">
-      <selection activeCell="C1117" sqref="C1117"/>
+    <sheetView topLeftCell="A1740" workbookViewId="0">
+      <selection activeCell="C1587" sqref="C1587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14731,881 +14734,886 @@
     </row>
     <row r="1586" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1586" t="s">
-        <v>1520</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1587" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1587" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1588" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1588" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="1589" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1589" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="1590" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1590" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1591" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1591" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1592" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1592" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1593" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1593" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="1594" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1594" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="1595" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1595" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1596" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1596" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1597" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1597" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1598" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1598" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="1599" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1599" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1600" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1600" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1601" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1601" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="1602" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1602" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1603" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1603" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1604" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1604" t="s">
-        <v>1536</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="1605" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1605" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1606" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1606" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1607" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1607" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="1608" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1608" t="s">
-        <v>1939</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1609" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1609" t="s">
-        <v>1542</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1610" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1610" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1611" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1611" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1612" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1612" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="1613" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1613" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1614" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1614" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="1615" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1615" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="1616" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1616" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="1617" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1617" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="1618" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1618" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1619" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1619" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1620" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1620" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="1621" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1621" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1622" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1622" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1623" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1623" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="1624" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1624" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1625" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1625" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1626" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1626" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1627" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1627" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="1628" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1628" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1629" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1629" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1630" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1630" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="1631" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1631" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1632" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1632" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1633" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1633" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="1634" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1634" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="1635" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1635" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1636" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1636" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1637" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1637" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="1638" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1638" t="s">
-        <v>1942</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1639" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1639" t="s">
-        <v>1571</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1640" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1640" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="1641" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1641" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1642" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1642" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1643" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1643" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1644" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1644" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="1645" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1645" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1646" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1646" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1647" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1647" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1648" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1648" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="1649" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1649" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="1650" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1650" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1651" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1651" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1652" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1652" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1653" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1653" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="1654" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1654" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1655" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1655" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1656" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1656" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1657" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1657" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1658" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1658" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1659" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1659" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1660" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1660" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1661" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1661" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1662" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1662" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1663" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1663" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1664" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1664" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1665" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1665" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1666" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1666" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1667" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1667" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1668" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1668" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1669" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1669" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1670" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1670" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1671" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1671" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1672" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1672" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1673" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1673" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1674" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1674" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1675" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1675" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1676" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1676" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1677" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1677" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1678" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1678" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1679" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1679" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1680" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1680" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1681" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1681" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1682" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1682" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1683" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1683" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1684" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1684" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1685" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1685" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1686" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1686" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1687" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1687" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1688" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1688" t="s">
-        <v>1940</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1689" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1689" t="s">
-        <v>1620</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1690" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1690" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1691" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1691" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1692" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1692" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1693" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1693" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1694" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1694" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1695" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1695" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1696" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1696" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1697" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1697" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1698" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1698" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1699" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1699" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1700" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1700" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1701" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1701" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1702" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1702" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1703" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1703" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1704" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1704" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1705" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1705" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1706" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1706" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1707" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1707" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1708" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1708" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1709" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1709" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1710" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1710" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1711" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1711" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1712" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1712" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1713" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1713" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1714" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1714" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1715" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1715" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1716" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1716" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1717" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1717" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1718" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1718" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1719" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1719" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1720" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1720" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1721" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1721" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1722" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1722" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1723" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1723" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1724" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1724" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1725" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1725" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1726" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1726" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1727" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1727" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1728" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1728" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1729" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1729" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1730" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1730" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1731" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1731" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1732" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1732" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1733" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1733" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1734" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1734" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1735" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1735" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1736" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1736" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1737" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1737" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1738" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1738" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1739" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1739" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1740" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1740" t="s">
-        <v>1666</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1741" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1741" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1742" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1742" t="s">
-        <v>1673</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="1743" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1743" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1744" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1744" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1745" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1745" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="1746" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1746" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1747" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1747" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1748" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1748" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1749" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1749" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1750" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1750" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1751" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1751" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1752" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1752" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1753" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1753" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="1754" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1754" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1755" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1755" t="s">
-        <v>1680</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1756" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1756" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1757" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1757" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1758" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1758" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1759" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1759" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1760" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1760" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1761" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1761" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1762" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1762" t="s">
         <v>1692</v>
       </c>
     </row>

--- a/SIGOFCv3/Archivos/Plantilla/CapacitacionParticipantes_v3.xlsx
+++ b/SIGOFCv3/Archivos/Plantilla/CapacitacionParticipantes_v3.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20405"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19270BB2-3F86-463C-B744-F23AF3E4FC57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A53119-108A-403F-8957-4EF632A1AB6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja3" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="4" state="hidden" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="5" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="1946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="1953">
   <si>
     <t>OBSERVACION</t>
   </si>
@@ -5446,9 +5446,6 @@
     <t>Santa Fe (AMAZONAS-CONDORCANQUI-EL CENEPA)</t>
   </si>
   <si>
-    <t>Capiroshari (CORONEL-PORTILLO-IPARIA)</t>
-  </si>
-  <si>
     <t>Antami (CORONEL-PORTILLO-MASISEA)</t>
   </si>
   <si>
@@ -5848,9 +5845,6 @@
     <t>Santa Rosa Tahuania (UCAYALI-ATALAYA-TAHUANÍA)</t>
   </si>
   <si>
-    <t>Nueva Vida de Sheshea (UCAYALI-CORONEL-PORTILLO IPARIA)</t>
-  </si>
-  <si>
     <t>Ribereña Nuevo Isla Baños (UCAYALI-CORONEL PORTILLO-MASISEA)</t>
   </si>
   <si>
@@ -5860,13 +5854,40 @@
     <t>Nueva Unión (UCAYALI-CORONEL PORTILLO-IPARÍA)</t>
   </si>
   <si>
-    <t>Murui-Muinani (LORETO-PUTUMAYO-TENIENTE MANUEL CLAVERO)</t>
-  </si>
-  <si>
-    <t>San Martin de Porres (LORETO-PUTUMAYO-TENIENTE MANUEL CLAVERO)</t>
-  </si>
-  <si>
     <t>Tsimepanko (UCAYALI-ATALAYA-TAHUANÍA)</t>
+  </si>
+  <si>
+    <t>Santa Martha (HUÁNUCO-PUERTO INCA-CODO DE POZUZO)</t>
+  </si>
+  <si>
+    <t>Pampa rosas (JUNIN-SATIPO-SATIPO)</t>
+  </si>
+  <si>
+    <t>Nuevo Iquitos (LORETO-ALTO AMAZONAS-BALSAPUERTO)</t>
+  </si>
+  <si>
+    <t>Nuevo Trancayacu (LORETO-ALTO AMAZONAS-BALSAPUERTO)</t>
+  </si>
+  <si>
+    <t>Palmera de Alto Pucayacu (LORETO-ALTO AMAZONAS-BALSAPUERTO)</t>
+  </si>
+  <si>
+    <t>Zapotillo (LORETO-ALTO AMAZONAS-BALSAPUERTO)</t>
+  </si>
+  <si>
+    <t>Murui-Muinani (LORETO-PUTUMAYO-BELETENIENTE MANUEL CLAVERON)</t>
+  </si>
+  <si>
+    <t>Capiroshari (UCAYALI-CORONEL PORTILLO-IPARÍA)</t>
+  </si>
+  <si>
+    <t>Monte Sion de Sheshea (UCAYALI-CORONEL PORTILLO-IPARÍA)</t>
+  </si>
+  <si>
+    <t>Nueva Vida de Sheshea (UCAYALI-CORONEL PORTILLO-IPARÍA)</t>
+  </si>
+  <si>
+    <t>Puerto Nuevo de Sheshea (UCAYALI-CORONEL PORTILLO-IPARÍA)</t>
   </si>
 </sst>
 </file>
@@ -6279,8 +6300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6396,7 +6417,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Dato inválido" error="Seleccione del listado" xr:uid="{ECCC55BC-FDD7-4FAC-94A4-9DBC5452FD9D}">
           <x14:formula1>
-            <xm:f>Hoja3!$C$1:$C$1762</xm:f>
+            <xm:f>Hoja3!$C$1:$C$1769</xm:f>
           </x14:formula1>
           <xm:sqref>J2:J1048576</xm:sqref>
         </x14:dataValidation>
@@ -6408,10 +6429,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1762"/>
+  <dimension ref="A1:E1769"/>
   <sheetViews>
-    <sheetView topLeftCell="A1740" workbookViewId="0">
-      <selection activeCell="C1587" sqref="C1587"/>
+    <sheetView topLeftCell="A1733" workbookViewId="0">
+      <selection activeCell="C1738" sqref="C1738"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7829,332 +7850,332 @@
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C205" t="s">
-        <v>1806</v>
+        <v>291</v>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C206" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C207" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C208" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C209" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C210" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C211" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C212" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C213" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C214" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C215" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C216" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C217" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C218" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C219" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C220" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C221" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C222" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C223" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C224" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C225" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C226" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C227" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C228" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C229" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C230" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C231" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C232" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C233" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C234" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C235" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C236" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C237" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C238" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C239" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C240" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C241" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C242" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C243" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="244" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C244" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C245" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C246" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C247" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C248" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C249" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="250" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C250" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C251" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="252" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C252" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C253" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C254" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C255" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="256" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C256" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C257" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C258" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C259" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C260" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C261" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C262" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C263" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C264" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C265" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C266" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C267" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C268" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C269" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C270" t="s">
-        <v>355</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.3">
@@ -8204,497 +8225,497 @@
     </row>
     <row r="280" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C280" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C281" t="s">
-        <v>365</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="282" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C282" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C283" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C284" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C285" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="286" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C286" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C287" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="288" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C288" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C289" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="290" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C290" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C291" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="292" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C292" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="293" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C293" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C294" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C295" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="296" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C296" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="297" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C297" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="298" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C298" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="299" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C299" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="300" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C300" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="301" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C301" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C302" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="303" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C303" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="304" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C304" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="305" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C305" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="306" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C306" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="307" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C307" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="308" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C308" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="309" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C309" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="310" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C310" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="311" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C311" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="312" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C312" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="313" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C313" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="314" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C314" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="315" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C315" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="316" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C316" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="317" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C317" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="318" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C318" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="319" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C319" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="320" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C320" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="321" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C321" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="322" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C322" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="323" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C323" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="324" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C324" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="325" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C325" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="326" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C326" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="327" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C327" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="328" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C328" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="329" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C329" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="330" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C330" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="331" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C331" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="332" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C332" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="333" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C333" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="334" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C334" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="335" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C335" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="336" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C336" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="337" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C337" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="338" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C338" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="339" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C339" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="340" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C340" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="341" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C341" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="342" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C342" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="343" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C343" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="344" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C344" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="345" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C345" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="346" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C346" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="347" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C347" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="348" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C348" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="349" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C349" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="350" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C350" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="351" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C351" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="352" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C352" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="353" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C353" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="354" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C354" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="355" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C355" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="356" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C356" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="357" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C357" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="358" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C358" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="359" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C359" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="360" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C360" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="361" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C361" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="362" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C362" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="363" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C363" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="364" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C364" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="365" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C365" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="366" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C366" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="367" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C367" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="368" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C368" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="369" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C369" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="370" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C370" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="371" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C371" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="372" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C372" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="373" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C373" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="374" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C374" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="375" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C375" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="376" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C376" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="377" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C377" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="378" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C378" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="379" spans="3:3" x14ac:dyDescent="0.3">
@@ -8704,6916 +8725,6951 @@
     </row>
     <row r="380" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C380" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="381" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C381" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="382" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C382" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="383" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C383" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="384" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C384" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="385" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C385" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="386" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C386" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="387" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C387" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="388" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C388" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="389" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C389" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="390" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C390" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="391" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C391" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="392" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C392" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="393" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C393" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="394" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C394" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="395" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C395" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="396" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C396" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="397" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C397" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="398" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C398" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="399" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C399" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="400" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C400" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
     </row>
     <row r="401" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C401" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="402" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C402" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="403" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C403" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="404" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C404" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="405" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C405" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="406" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C406" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="407" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C407" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="408" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C408" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="409" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C409" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="410" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C410" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="411" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C411" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="412" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C412" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="413" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C413" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="414" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C414" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="415" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C415" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="416" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C416" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="417" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C417" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="418" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C418" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="419" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C419" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="420" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C420" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="421" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C421" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="422" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C422" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="423" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C423" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="424" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C424" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="425" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C425" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="426" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C426" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="427" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C427" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="428" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C428" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="429" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C429" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="430" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C430" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="431" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C431" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="432" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C432" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="433" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C433" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="434" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C434" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="435" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C435" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="436" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C436" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="437" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C437" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="438" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C438" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="439" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C439" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="440" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C440" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="441" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C441" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="442" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C442" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="443" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C443" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="444" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C444" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="445" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C445" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="446" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C446" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="447" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C447" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="448" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C448" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="449" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C449" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="450" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C450" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="451" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C451" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="452" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C452" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="453" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C453" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="454" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C454" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="455" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C455" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="456" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C456" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="457" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C457" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="458" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C458" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="459" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C459" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="460" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C460" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="461" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C461" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="462" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C462" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="463" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C463" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="464" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C464" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="465" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C465" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="466" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C466" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="467" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C467" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="468" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C468" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="469" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C469" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="470" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C470" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="471" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C471" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="472" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C472" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="473" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C473" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="474" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C474" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="475" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C475" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="476" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C476" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="477" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C477" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="478" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C478" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="479" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C479" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="480" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C480" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="481" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C481" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="482" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C482" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="483" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C483" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="484" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C484" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="485" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C485" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="486" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C486" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="487" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C487" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="488" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C488" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="489" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C489" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="490" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C490" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="491" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C491" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="492" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C492" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="493" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C493" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="494" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C494" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="495" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C495" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="496" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C496" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="497" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C497" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="498" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C498" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="499" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C499" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="500" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C500" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="501" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C501" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="502" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C502" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="503" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C503" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="504" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C504" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="505" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C505" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="506" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C506" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="507" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C507" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="508" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C508" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="509" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C509" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="510" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C510" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="511" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C511" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="512" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C512" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="513" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C513" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="514" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C514" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="515" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C515" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="516" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C516" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="517" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C517" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="518" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C518" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="519" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C519" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="520" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C520" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="521" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C521" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="522" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C522" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="523" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C523" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="524" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C524" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="525" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C525" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="526" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C526" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="527" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C527" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="528" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C528" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="529" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C529" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="530" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C530" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="531" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C531" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="532" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C532" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="533" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C533" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="534" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C534" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="535" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C535" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="536" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C536" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="537" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C537" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="538" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C538" t="s">
-        <v>621</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="539" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C539" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="540" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C540" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="541" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C541" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="542" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C542" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="543" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C543" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="544" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C544" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="545" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C545" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="546" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C546" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="547" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C547" t="s">
-        <v>630</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="548" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C548" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="549" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C549" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="550" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C550" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="551" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C551" t="s">
-        <v>634</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="552" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C552" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="553" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C553" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="554" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C554" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="555" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C555" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="556" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C556" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="557" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C557" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="558" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C558" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="559" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C559" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="560" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C560" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="561" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C561" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="562" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C562" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="563" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C563" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="564" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C564" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="565" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C565" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="566" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C566" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="567" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C567" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="568" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C568" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="569" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C569" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="570" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C570" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="571" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C571" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="572" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C572" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="573" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C573" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="574" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C574" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="575" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C575" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="576" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C576" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="577" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C577" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="578" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C578" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="579" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C579" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="580" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C580" t="s">
-        <v>663</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="581" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C581" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="582" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C582" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="583" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C583" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="584" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C584" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="585" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C585" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="586" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C586" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="587" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C587" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="588" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C588" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="589" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C589" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="590" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C590" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="591" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C591" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="592" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C592" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="593" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C593" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="594" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C594" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="595" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C595" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="596" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C596" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="597" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C597" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="598" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C598" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="599" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C599" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="600" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C600" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="601" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C601" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="602" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C602" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="603" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C603" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="604" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C604" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="605" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C605" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="606" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C606" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="607" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C607" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="608" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C608" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="609" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C609" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="610" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C610" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="611" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C611" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="612" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C612" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="613" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C613" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="614" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C614" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="615" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C615" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="616" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C616" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="617" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C617" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="618" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C618" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="619" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C619" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="620" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C620" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
     </row>
     <row r="621" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C621" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="622" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C622" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="623" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C623" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="624" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C624" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="625" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C625" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="626" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C626" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="627" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C627" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="628" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C628" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="629" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C629" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
     </row>
     <row r="630" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C630" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="631" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C631" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="632" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C632" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="633" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C633" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="634" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C634" t="s">
-        <v>1808</v>
+        <v>715</v>
       </c>
     </row>
     <row r="635" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C635" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="636" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C636" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
     </row>
     <row r="637" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C637" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="638" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C638" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="639" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C639" t="s">
-        <v>721</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="640" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C640" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="641" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C641" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="642" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C642" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="643" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C643" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="644" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C644" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="645" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C645" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="646" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C646" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="647" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C647" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="648" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C648" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="649" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C649" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="650" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C650" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="651" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C651" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="652" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C652" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="653" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C653" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="654" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C654" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="655" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C655" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="656" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C656" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="657" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C657" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="658" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C658" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="659" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C659" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="660" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C660" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="661" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C661" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="662" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C662" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="663" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C663" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="664" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C664" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="665" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C665" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="666" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C666" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="667" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C667" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="668" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C668" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="669" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C669" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="670" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C670" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="671" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C671" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="672" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C672" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="673" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C673" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="674" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C674" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="675" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C675" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="676" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C676" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="677" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C677" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="678" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C678" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="679" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C679" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="680" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C680" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="681" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C681" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="682" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C682" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="683" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C683" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="684" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C684" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="685" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C685" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="686" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C686" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="687" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C687" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="688" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C688" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="689" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C689" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="690" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C690" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="691" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C691" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="692" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C692" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="693" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C693" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="694" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C694" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="695" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C695" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="696" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C696" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="697" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C697" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="698" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C698" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="699" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C699" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="700" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C700" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="701" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C701" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="702" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C702" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="703" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C703" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="704" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C704" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="705" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C705" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="706" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C706" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="707" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C707" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="708" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C708" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="709" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C709" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="710" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C710" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="711" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C711" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="712" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C712" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="713" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C713" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="714" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C714" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="715" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C715" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="716" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C716" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="717" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C717" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
     </row>
     <row r="718" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C718" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="719" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C719" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="720" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C720" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="721" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C721" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="722" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C722" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
     </row>
     <row r="723" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C723" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="724" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C724" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="725" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C725" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
     </row>
     <row r="726" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C726" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="727" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C727" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
     </row>
     <row r="728" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C728" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="729" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C729" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="730" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C730" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="731" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C731" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="732" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C732" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="733" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C733" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="734" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C734" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="735" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C735" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="736" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C736" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
     </row>
     <row r="737" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C737" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="738" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C738" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="739" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C739" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
     </row>
     <row r="740" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C740" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="741" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C741" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
     </row>
     <row r="742" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C742" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="743" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C743" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="744" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C744" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="745" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C745" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
     </row>
     <row r="746" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C746" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="747" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C747" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
     </row>
     <row r="748" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C748" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="749" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C749" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
     </row>
     <row r="750" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C750" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="751" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C751" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
     </row>
     <row r="752" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C752" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="753" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C753" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="754" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C754" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="755" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C755" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
     </row>
     <row r="756" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C756" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="757" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C757" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="758" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C758" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
     </row>
     <row r="759" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C759" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
     </row>
     <row r="760" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C760" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="761" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C761" t="s">
-        <v>1809</v>
+        <v>838</v>
       </c>
     </row>
     <row r="762" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C762" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="763" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C763" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="764" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C764" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="765" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C765" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="766" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C766" t="s">
-        <v>847</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="767" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C767" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="768" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C768" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="769" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C769" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="770" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C770" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="771" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C771" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="772" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C772" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="773" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C773" t="s">
-        <v>1810</v>
+        <v>849</v>
       </c>
     </row>
     <row r="774" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C774" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="775" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C775" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="776" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C776" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="777" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C777" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="778" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C778" t="s">
-        <v>858</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="779" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C779" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="780" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C780" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="781" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C781" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
     <row r="782" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C782" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
     <row r="783" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C783" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="784" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C784" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="785" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C785" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
     </row>
     <row r="786" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C786" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
     </row>
     <row r="787" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C787" t="s">
-        <v>1811</v>
+        <v>862</v>
       </c>
     </row>
     <row r="788" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C788" t="s">
-        <v>1812</v>
+        <v>863</v>
       </c>
     </row>
     <row r="789" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C789" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="790" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C790" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="791" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C791" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="792" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C792" t="s">
-        <v>870</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="793" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C793" t="s">
-        <v>871</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="794" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C794" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
     </row>
     <row r="795" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C795" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="796" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C796" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="797" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C797" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
     </row>
     <row r="798" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C798" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
     </row>
     <row r="799" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C799" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
     </row>
     <row r="800" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C800" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
     </row>
     <row r="801" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C801" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="802" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C802" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="803" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C803" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
     </row>
     <row r="804" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C804" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="805" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C805" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="806" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C806" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
     </row>
     <row r="807" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C807" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
     </row>
     <row r="808" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C808" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
     </row>
     <row r="809" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C809" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="810" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C810" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
     </row>
     <row r="811" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C811" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
     </row>
     <row r="812" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C812" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
     </row>
     <row r="813" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C813" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="814" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C814" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
     </row>
     <row r="815" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C815" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
     </row>
     <row r="816" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C816" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="817" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C817" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
     </row>
     <row r="818" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C818" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
     </row>
     <row r="819" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C819" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
     </row>
     <row r="820" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C820" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
     </row>
     <row r="821" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C821" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="822" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C822" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="823" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C823" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="824" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C824" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="825" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C825" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
     </row>
     <row r="826" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C826" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="827" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C827" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="828" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C828" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="829" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C829" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
     </row>
     <row r="830" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C830" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
     </row>
     <row r="831" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C831" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
     </row>
     <row r="832" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C832" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
     </row>
     <row r="833" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C833" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
     </row>
     <row r="834" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C834" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="835" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C835" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="836" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C836" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="837" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C837" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
     </row>
     <row r="838" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C838" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
     </row>
     <row r="839" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C839" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
     </row>
     <row r="840" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C840" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="841" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C841" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
     </row>
     <row r="842" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C842" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="843" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C843" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="844" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C844" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="845" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C845" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="846" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C846" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="847" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C847" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
     </row>
     <row r="848" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C848" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="849" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C849" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
     </row>
     <row r="850" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C850" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
     </row>
     <row r="851" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C851" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
     </row>
     <row r="852" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C852" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
     </row>
     <row r="853" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C853" t="s">
-        <v>1813</v>
+        <v>925</v>
       </c>
     </row>
     <row r="854" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C854" t="s">
-        <v>1814</v>
+        <v>926</v>
       </c>
     </row>
     <row r="855" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C855" t="s">
-        <v>1815</v>
+        <v>927</v>
       </c>
     </row>
     <row r="856" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C856" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="857" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C857" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="858" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C858" t="s">
-        <v>932</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="859" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C859" t="s">
-        <v>933</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="860" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C860" t="s">
-        <v>934</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="861" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C861" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
     </row>
     <row r="862" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C862" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
     </row>
     <row r="863" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C863" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
     </row>
     <row r="864" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C864" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
     </row>
     <row r="865" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C865" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
     </row>
     <row r="866" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C866" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
     </row>
     <row r="867" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C867" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
     </row>
     <row r="868" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C868" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
     </row>
     <row r="869" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C869" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
     </row>
     <row r="870" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C870" t="s">
-        <v>1816</v>
+        <v>939</v>
       </c>
     </row>
     <row r="871" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C871" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="872" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C872" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="873" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C873" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="874" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C874" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="875" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C875" t="s">
-        <v>948</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="876" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C876" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
     </row>
     <row r="877" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C877" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
     </row>
     <row r="878" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C878" t="s">
-        <v>1817</v>
+        <v>946</v>
       </c>
     </row>
     <row r="879" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C879" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="880" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C880" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="881" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C881" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="882" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C882" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
     </row>
     <row r="883" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C883" t="s">
-        <v>954</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="884" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C884" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
     </row>
     <row r="885" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C885" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
     </row>
     <row r="886" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C886" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
     </row>
     <row r="887" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C887" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="888" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C888" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
     </row>
     <row r="889" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C889" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="890" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C890" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
     </row>
     <row r="891" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C891" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="892" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C892" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
     </row>
     <row r="893" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C893" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
     </row>
     <row r="894" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C894" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
     </row>
     <row r="895" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C895" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
     </row>
     <row r="896" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C896" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
     </row>
     <row r="897" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C897" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
     </row>
     <row r="898" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C898" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
     </row>
     <row r="899" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C899" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="900" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C900" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
     </row>
     <row r="901" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C901" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
     </row>
     <row r="902" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C902" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
     </row>
     <row r="903" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C903" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
     </row>
     <row r="904" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C904" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
     </row>
     <row r="905" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C905" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
     </row>
     <row r="906" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C906" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
     </row>
     <row r="907" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C907" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
     <row r="908" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C908" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
     </row>
     <row r="909" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C909" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
     </row>
     <row r="910" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C910" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
     </row>
     <row r="911" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C911" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
     </row>
     <row r="912" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C912" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
     </row>
     <row r="913" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C913" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
     </row>
     <row r="914" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C914" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
     </row>
     <row r="915" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C915" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="916" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C916" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="917" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C917" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="918" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C918" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
     </row>
     <row r="919" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C919" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
     </row>
     <row r="920" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C920" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
     </row>
     <row r="921" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C921" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
     </row>
     <row r="922" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C922" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
     </row>
     <row r="923" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C923" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
     </row>
     <row r="924" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C924" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="925" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C925" t="s">
-        <v>1818</v>
+        <v>992</v>
       </c>
     </row>
     <row r="926" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C926" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="927" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C927" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="928" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C928" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="929" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C929" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="930" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C930" t="s">
-        <v>1001</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="931" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C931" t="s">
-        <v>1819</v>
+        <v>997</v>
       </c>
     </row>
     <row r="932" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C932" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="933" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C933" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="934" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C934" t="s">
-        <v>1820</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="935" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C935" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="936" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C936" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="937" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C937" t="s">
-        <v>1822</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="938" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C938" t="s">
-        <v>1823</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="939" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C939" t="s">
-        <v>1824</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="940" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C940" t="s">
-        <v>1825</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="941" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C941" t="s">
-        <v>1826</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="942" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C942" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="943" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C943" t="s">
-        <v>1005</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="944" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C944" t="s">
-        <v>1006</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="945" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C945" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="946" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C946" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="947" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C947" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="948" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C948" t="s">
-        <v>1831</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="949" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C949" t="s">
-        <v>1832</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="950" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C950" t="s">
-        <v>1833</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="951" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C951" t="s">
-        <v>1834</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="952" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C952" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="953" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C953" t="s">
-        <v>1007</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="954" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C954" t="s">
-        <v>1836</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="955" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C955" t="s">
-        <v>1837</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="956" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C956" t="s">
-        <v>1838</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="957" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C957" t="s">
-        <v>1839</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="958" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C958" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="959" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C959" t="s">
-        <v>1009</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="960" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C960" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="961" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C961" t="s">
-        <v>1010</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="962" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C962" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="963" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C963" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="964" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C964" t="s">
-        <v>1842</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="965" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C965" t="s">
-        <v>1012</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="966" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C966" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="967" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C967" t="s">
-        <v>1014</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="968" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C968" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="969" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C969" t="s">
-        <v>1016</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="970" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C970" t="s">
-        <v>1843</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="971" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C971" t="s">
-        <v>1844</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="972" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C972" t="s">
-        <v>1845</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="973" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C973" t="s">
-        <v>1846</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="974" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C974" t="s">
-        <v>1847</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="975" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C975" t="s">
-        <v>1017</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="976" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C976" t="s">
-        <v>1018</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="977" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C977" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="978" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C978" t="s">
-        <v>1019</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="979" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C979" t="s">
-        <v>1020</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="980" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C980" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="981" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C981" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="982" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C982" t="s">
-        <v>1023</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="983" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C983" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="984" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C984" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="985" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C985" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="986" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C986" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="987" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C987" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="988" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C988" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="989" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C989" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="990" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C990" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="991" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C991" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="992" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C992" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="993" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C993" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="994" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C994" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="995" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C995" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="996" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C996" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="997" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C997" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="998" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C998" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="999" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C999" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1000" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1000" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1001" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1001" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1002" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1002" t="s">
-        <v>1849</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1003" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1003" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1004" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1004" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1005" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1005" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1006" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1006" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1007" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1007" t="s">
-        <v>1047</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1008" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1008" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1009" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1009" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1010" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1010" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1011" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1011" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1012" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1012" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1013" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1013" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1014" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1014" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1015" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1015" t="s">
-        <v>1850</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1016" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1016" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1017" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1017" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1018" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1018" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1019" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1019" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1020" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1020" t="s">
-        <v>1059</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1021" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1021" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1022" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1022" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="1023" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1023" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1024" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1024" t="s">
-        <v>1851</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1025" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1025" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1026" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1026" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1027" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1027" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1028" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1028" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1029" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1029" t="s">
-        <v>1067</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1030" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1030" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1031" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1031" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1032" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1032" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1033" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1033" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1034" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1034" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1035" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1035" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1036" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1036" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1037" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1037" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1038" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1038" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1039" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1039" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1040" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1040" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1041" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1041" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1042" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1042" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1043" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1043" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1044" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1044" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1045" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1045" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1046" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1046" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1047" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1047" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1048" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1048" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1049" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1049" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1050" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1050" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1051" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1051" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1052" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1052" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1053" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1053" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1054" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1054" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1055" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1055" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1056" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1056" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1057" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1057" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1058" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1058" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1059" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1059" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1060" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1060" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1061" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1061" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1062" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1062" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1063" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1063" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1064" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1064" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1065" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1065" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1066" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1066" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1067" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1067" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1068" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1068" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1069" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1069" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1070" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1070" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1071" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1071" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1072" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1072" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1073" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1073" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1074" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1074" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1075" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1075" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1076" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1076" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1077" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1077" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1078" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1078" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1079" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1079" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1080" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1080" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1081" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1081" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1082" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1082" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1083" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1083" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1084" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1084" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1085" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1085" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1086" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1086" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1087" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1087" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1088" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1088" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1089" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1089" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1090" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1090" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1091" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1091" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1092" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1092" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1093" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1093" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1094" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1094" t="s">
-        <v>1852</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1095" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1095" t="s">
-        <v>1853</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1096" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1096" t="s">
-        <v>1854</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1097" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1097" t="s">
-        <v>1855</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1098" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1098" t="s">
-        <v>1856</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1099" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1099" t="s">
-        <v>1857</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1100" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1100" t="s">
-        <v>1858</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1101" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1101" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1102" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1102" t="s">
-        <v>1860</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1103" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1103" t="s">
-        <v>1861</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="1104" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1104" t="s">
-        <v>1862</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1105" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1105" t="s">
-        <v>1863</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1106" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1106" t="s">
-        <v>1864</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1107" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1107" t="s">
-        <v>1865</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1108" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1108" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1109" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1109" t="s">
-        <v>1867</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1110" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1110" t="s">
-        <v>1868</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1111" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1111" t="s">
-        <v>1869</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1112" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1112" t="s">
-        <v>1870</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="1113" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1113" t="s">
-        <v>1871</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1114" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1114" t="s">
-        <v>1872</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1115" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1115" t="s">
-        <v>1943</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1116" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1116" t="s">
-        <v>1944</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1117" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1117" t="s">
-        <v>1873</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1118" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1118" t="s">
-        <v>1874</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1119" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1119" t="s">
-        <v>1875</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1120" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1120" t="s">
-        <v>1876</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1121" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1121" t="s">
-        <v>1133</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1122" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1122" t="s">
-        <v>1132</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1123" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1123" t="s">
-        <v>1134</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1124" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1124" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1125" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1125" t="s">
-        <v>1878</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1126" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1126" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1127" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1127" t="s">
-        <v>1879</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1128" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1128" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1129" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1129" t="s">
-        <v>1136</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1130" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1130" t="s">
-        <v>1881</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1131" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1131" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1132" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1132" t="s">
-        <v>1137</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1133" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1133" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1134" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1134" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1135" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1135" t="s">
-        <v>1139</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1136" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1136" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1137" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1137" t="s">
-        <v>1884</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1138" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1138" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1139" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1139" t="s">
-        <v>1886</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1140" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1140" t="s">
-        <v>1887</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1141" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1141" t="s">
-        <v>1888</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1142" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1142" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1143" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1143" t="s">
-        <v>1890</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1144" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1144" t="s">
-        <v>1891</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1145" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1145" t="s">
-        <v>1892</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1146" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1146" t="s">
-        <v>1893</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1147" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1147" t="s">
-        <v>1894</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1148" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1148" t="s">
-        <v>1895</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1149" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1149" t="s">
-        <v>1896</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1150" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1150" t="s">
-        <v>1897</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1151" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1151" t="s">
-        <v>1898</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1152" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1152" t="s">
-        <v>1141</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1153" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1153" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1154" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1154" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1155" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1155" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1156" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1156" t="s">
-        <v>1902</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1157" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1157" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1158" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1158" t="s">
-        <v>1904</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1159" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1159" t="s">
-        <v>1905</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1160" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1160" t="s">
-        <v>1906</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1161" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1161" t="s">
-        <v>1907</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1162" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1162" t="s">
-        <v>1908</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1163" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1163" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1164" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1164" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1165" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1165" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1166" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1166" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1167" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1167" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1168" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1168" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1169" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1169" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1170" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1170" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1171" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1171" t="s">
-        <v>1914</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1172" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1172" t="s">
-        <v>1142</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1173" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1173" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1174" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1174" t="s">
-        <v>1143</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1175" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1175" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1176" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1176" t="s">
-        <v>1917</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1177" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1177" t="s">
-        <v>1144</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1178" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1178" t="s">
-        <v>1918</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1179" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1179" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1180" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1180" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1181" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1181" t="s">
-        <v>1920</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1182" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1182" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1183" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1183" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1184" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1184" t="s">
-        <v>1146</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1185" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1185" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1186" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1186" t="s">
-        <v>1145</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1187" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1187" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1188" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1188" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1189" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1189" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1190" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1190" t="s">
-        <v>1926</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1191" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1191" t="s">
-        <v>1148</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="1192" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1192" t="s">
-        <v>1927</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1193" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1193" t="s">
-        <v>1149</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1194" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1194" t="s">
-        <v>1150</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1195" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1195" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1196" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1196" t="s">
-        <v>1152</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1197" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1197" t="s">
-        <v>1928</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1198" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1198" t="s">
-        <v>1929</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1199" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1199" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1200" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1200" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1201" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1201" t="s">
-        <v>1157</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1202" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1202" t="s">
-        <v>1157</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1203" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1203" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1204" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1204" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1205" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1205" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1206" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1206" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1207" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1207" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1208" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1208" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1209" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1209" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1210" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1210" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1211" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1211" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1212" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1212" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1213" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1213" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1214" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1214" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1215" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1215" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1216" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1216" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1217" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1217" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1218" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1218" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1219" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1219" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1220" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1220" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1221" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1221" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1222" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1222" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1223" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1223" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1224" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1224" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1225" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1225" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1226" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1226" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1227" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1227" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1228" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1228" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1229" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1229" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1230" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1230" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1231" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1231" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1232" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1232" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1233" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1233" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1234" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1234" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1235" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1235" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1236" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1236" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1237" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1237" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1238" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1238" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1239" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1239" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1240" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1240" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1241" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1241" t="s">
-        <v>1930</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1242" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1242" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1243" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1243" t="s">
-        <v>1941</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1244" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1244" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1245" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1245" t="s">
-        <v>1196</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1246" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1246" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1247" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1247" t="s">
-        <v>1198</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1248" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1248" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1249" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1249" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1250" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1250" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1251" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1251" t="s">
-        <v>1931</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1252" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1252" t="s">
-        <v>1932</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1253" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1253" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1254" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1254" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1255" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1255" t="s">
-        <v>1204</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1256" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1256" t="s">
-        <v>1205</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1257" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1257" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1258" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1258" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1259" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1259" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1260" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1260" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1261" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1261" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1262" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1262" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1263" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1263" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1264" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1264" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1265" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1265" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1266" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1266" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1267" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1267" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1268" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1268" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1269" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1269" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1270" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1270" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1271" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1271" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1272" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1272" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1273" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1273" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1274" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1274" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1275" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1275" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1276" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1276" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1277" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1277" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1278" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1278" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1279" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1279" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1280" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1280" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1281" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1281" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1282" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1282" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1283" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1283" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1284" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1284" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1285" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1285" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1286" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1286" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1287" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1287" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1288" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1288" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1289" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1289" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1290" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1290" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1291" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1291" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1292" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1292" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1293" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1293" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1294" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1294" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1295" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1295" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1296" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1296" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1297" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1297" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1298" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1298" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1299" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1299" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1300" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1300" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1301" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1301" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1302" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1302" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1303" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1303" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1304" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1304" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1305" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1305" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1306" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1306" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1307" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1307" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1308" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1308" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1309" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1309" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1310" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1310" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1311" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1311" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1312" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1312" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1313" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1313" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1314" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1314" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1315" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1315" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1316" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1316" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1317" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1317" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1318" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1318" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1319" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1319" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1320" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1320" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1321" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1321" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1322" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1322" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1323" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1323" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1324" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1324" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1325" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1325" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1326" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1326" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1327" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1327" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1328" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1328" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1329" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1329" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1330" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1330" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1331" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1331" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1332" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1332" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1333" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1333" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1334" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1334" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1335" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1335" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1336" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1336" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1337" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1337" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1338" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1338" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1339" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1339" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1340" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1340" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1341" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1341" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1342" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1342" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1343" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1343" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1344" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1344" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1345" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1345" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1346" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1346" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1347" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1347" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1348" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1348" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1349" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1349" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1350" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1350" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1351" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1351" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1352" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1352" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1353" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1353" t="s">
-        <v>1318</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1354" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1354" t="s">
-        <v>1322</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1355" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1355" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1356" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1356" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1357" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1357" t="s">
-        <v>1304</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1358" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1358" t="s">
-        <v>1305</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1359" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1359" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1360" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1360" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1361" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1361" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1362" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1362" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1363" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1363" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1364" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1364" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1365" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1365" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1366" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1366" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1367" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1367" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1368" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1368" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1369" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1369" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1370" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1370" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1371" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1371" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1372" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1372" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1373" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1373" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1374" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1374" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1375" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1375" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1376" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1376" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1377" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1377" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1378" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1378" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1379" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1379" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1380" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1380" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1381" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1381" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1382" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1382" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="1383" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1383" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1384" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1384" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1385" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1385" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1386" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1386" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1387" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1387" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1388" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1388" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1389" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1389" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1390" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1390" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1391" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1391" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1392" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1392" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1393" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1393" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1394" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1394" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="1395" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1395" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1396" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1396" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1397" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1397" t="s">
-        <v>1933</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="1398" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1398" t="s">
-        <v>1795</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1399" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1399" t="s">
-        <v>1797</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1400" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1400" t="s">
-        <v>1934</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="1401" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1401" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1402" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1402" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1403" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1403" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1404" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1404" t="s">
-        <v>1798</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1405" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1405" t="s">
-        <v>1796</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1406" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1406" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="1407" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1407" t="s">
-        <v>1792</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1408" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1408" t="s">
-        <v>1346</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1409" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1409" t="s">
-        <v>1347</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1410" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1410" t="s">
-        <v>1348</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="1411" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1411" t="s">
-        <v>1349</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1412" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1412" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1413" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1413" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1414" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1414" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1415" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1415" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1416" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1416" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1417" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1417" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1418" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1418" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1419" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1419" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1420" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1420" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="1421" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1421" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1422" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1422" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1423" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1423" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1424" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1424" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="1425" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1425" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1426" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1426" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1427" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1427" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="1428" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1428" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="1429" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1429" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="1430" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1430" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="1431" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1431" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1432" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1432" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="1433" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1433" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="1434" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1434" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1435" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1435" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="1436" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1436" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="1437" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1437" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1438" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1438" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="1439" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1439" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1440" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1440" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1441" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1441" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1442" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1442" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1443" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1443" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="1444" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1444" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1445" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1445" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="1446" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1446" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="1447" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1447" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1448" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1448" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="1449" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1449" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="1450" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1450" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="1451" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1451" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1452" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1452" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="1453" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1453" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1454" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1454" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="1455" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1455" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1456" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1456" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1457" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1457" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1458" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1458" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1459" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1459" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="1460" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1460" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1461" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1461" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1462" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1462" t="s">
-        <v>1409</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1463" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1463" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1464" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1464" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1465" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1465" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1466" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1466" t="s">
-        <v>1403</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="1467" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1467" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1468" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1468" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1469" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1469" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1470" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1470" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="1471" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1471" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="1472" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1472" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1473" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1473" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1474" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1474" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1475" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1475" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1476" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1476" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1477" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1477" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1478" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1478" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1479" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1479" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1480" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1480" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1481" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1481" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1482" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1482" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="1483" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1483" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1484" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1484" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1485" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1485" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="1486" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1486" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1487" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1487" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1488" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1488" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="1489" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1489" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1490" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1490" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="1491" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1491" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="1492" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1492" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1493" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1493" t="s">
-        <v>1936</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1494" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1494" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1495" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1495" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="1496" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1496" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1497" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1497" t="s">
-        <v>1434</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1498" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1498" t="s">
-        <v>1937</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="1499" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1499" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1500" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1500" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1501" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1501" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="1502" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1502" t="s">
-        <v>1438</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1503" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1503" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1504" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1504" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1505" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1505" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1506" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1506" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1507" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1507" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="1508" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1508" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1509" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1509" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1510" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1510" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1511" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1511" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1512" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1512" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1513" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1513" t="s">
-        <v>1465</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1514" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1514" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1515" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1515" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1516" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1516" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1517" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1517" t="s">
-        <v>1453</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1518" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1518" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1519" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1519" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1520" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1520" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1521" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1521" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1522" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1522" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1523" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1523" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1524" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1524" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1525" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1525" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1526" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1526" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1527" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1527" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1528" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1528" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1529" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1529" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1530" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1530" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1531" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1531" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1532" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1532" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1533" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1533" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1534" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1534" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1535" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1535" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1536" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1536" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1537" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1537" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1538" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1538" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1539" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1539" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1540" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1540" t="s">
-        <v>1478</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1541" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1541" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1542" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1542" t="s">
-        <v>1439</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1543" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1543" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1544" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1544" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1545" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1545" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="1546" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1546" t="s">
-        <v>1482</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="1547" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1547" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="1548" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1548" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1549" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1549" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="1550" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1550" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="1551" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1551" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1552" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1552" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1553" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1553" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="1554" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1554" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="1555" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1555" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1556" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1556" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="1557" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1557" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="1558" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1558" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="1559" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1559" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1560" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1560" t="s">
-        <v>1801</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="1561" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1561" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="1562" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1562" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="1563" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1563" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1564" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1564" t="s">
-        <v>1503</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1565" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1565" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="1566" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1566" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1567" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1567" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1568" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1568" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="1569" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1569" t="s">
-        <v>1504</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="1570" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1570" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="1571" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1571" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1572" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1572" t="s">
-        <v>1507</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="1573" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1573" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1574" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1574" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1575" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1575" t="s">
-        <v>1514</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1576" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1576" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1577" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1577" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="1578" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1578" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="1579" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1579" t="s">
-        <v>1938</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1580" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1580" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1581" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1581" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="1582" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1582" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="1583" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1583" t="s">
-        <v>1517</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1584" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1584" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1585" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1585" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1586" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1586" t="s">
-        <v>1945</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="1587" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1587" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1588" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1588" t="s">
-        <v>1521</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1589" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1589" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="1590" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1590" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="1591" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1591" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1592" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1592" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="1593" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1593" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="1594" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1594" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1595" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1595" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1596" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1596" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1597" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1597" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="1598" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1598" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="1599" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1599" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1600" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1600" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1601" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1601" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1602" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1602" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="1603" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1603" t="s">
-        <v>1537</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1604" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1604" t="s">
-        <v>1540</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1605" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1605" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="1606" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1606" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1607" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1607" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1608" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1608" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="1609" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1609" t="s">
-        <v>1939</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1610" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1610" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1611" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1611" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="1612" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1612" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1613" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1613" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1614" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1614" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1615" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1615" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="1616" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1616" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1617" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1617" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="1618" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1618" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="1619" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1619" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="1620" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1620" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="1621" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1621" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1622" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1622" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1623" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1623" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="1624" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1624" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1625" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1625" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1626" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1626" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="1627" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1627" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1628" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1628" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1629" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1629" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1630" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1630" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="1631" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1631" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1632" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1632" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1633" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1633" t="s">
-        <v>1565</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1634" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1634" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="1635" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1635" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1636" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1636" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1637" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1637" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="1638" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1638" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="1639" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1639" t="s">
-        <v>1942</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1640" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1640" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1641" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1641" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1642" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1642" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="1643" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1643" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1644" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1644" t="s">
-        <v>1575</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1645" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1645" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="1646" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1646" t="s">
-        <v>1577</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1647" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1647" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1648" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1648" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1649" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1649" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1650" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1650" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="1651" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1651" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1652" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1652" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1653" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1653" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1654" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1654" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="1655" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1655" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="1656" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1656" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1657" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1657" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1658" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1658" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1659" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1659" t="s">
-        <v>1590</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1660" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1660" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="1661" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1661" t="s">
-        <v>1592</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1662" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1662" t="s">
-        <v>1593</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1663" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1663" t="s">
-        <v>1594</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1664" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1664" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1665" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1665" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1666" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1666" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1667" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1667" t="s">
-        <v>1598</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1668" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1668" t="s">
-        <v>1599</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1669" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1669" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1670" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1670" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1671" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1671" t="s">
-        <v>1602</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1672" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1672" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1673" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1673" t="s">
-        <v>1605</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1674" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1674" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1675" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1675" t="s">
-        <v>1606</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1676" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1676" t="s">
-        <v>1607</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1677" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1677" t="s">
-        <v>1608</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1678" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1678" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1679" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1679" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1680" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1680" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1681" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1681" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1682" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1682" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1683" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1683" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1684" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1684" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1685" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1685" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1686" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1686" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1687" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1687" t="s">
-        <v>1618</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1688" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1688" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1689" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1689" t="s">
-        <v>1940</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1690" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1690" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1691" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1691" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1692" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1692" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1693" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1693" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1694" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1694" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1695" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1695" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1696" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1696" t="s">
-        <v>1626</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1697" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1697" t="s">
-        <v>1627</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1698" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1698" t="s">
-        <v>1628</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1699" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1699" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1700" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1700" t="s">
-        <v>1630</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1701" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1701" t="s">
-        <v>1631</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1702" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1702" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1703" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1703" t="s">
-        <v>1633</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1704" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1704" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1705" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1705" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1706" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1706" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1707" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1707" t="s">
-        <v>1638</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1708" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1708" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1709" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1709" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1710" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1710" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1711" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1711" t="s">
-        <v>1641</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1712" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1712" t="s">
-        <v>1642</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1713" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1713" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1714" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1714" t="s">
-        <v>1644</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1715" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1715" t="s">
-        <v>1645</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1716" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1716" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1717" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1717" t="s">
-        <v>1647</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1718" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1718" t="s">
-        <v>1648</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1719" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1719" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1720" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1720" t="s">
-        <v>1650</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1721" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1721" t="s">
-        <v>1651</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1722" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1722" t="s">
-        <v>1652</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1723" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1723" t="s">
-        <v>1653</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1724" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1724" t="s">
-        <v>1654</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1725" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1725" t="s">
-        <v>1655</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1726" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1726" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1727" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1727" t="s">
-        <v>1657</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1728" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1728" t="s">
-        <v>1658</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1729" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1729" t="s">
-        <v>1660</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1730" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1730" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1731" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1731" t="s">
-        <v>1661</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1732" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1732" t="s">
-        <v>1662</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1733" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1733" t="s">
-        <v>1663</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1734" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1734" t="s">
-        <v>1664</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1735" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1735" t="s">
-        <v>1665</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1736" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1736" t="s">
-        <v>1667</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1737" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1737" t="s">
-        <v>1669</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1738" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1738" t="s">
-        <v>1670</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1739" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1739" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1740" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1740" t="s">
-        <v>1672</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1741" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1741" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1742" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1742" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1743" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1743" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1744" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1744" t="s">
-        <v>1674</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1745" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1745" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1746" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1746" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1747" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1747" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1748" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1748" t="s">
-        <v>1678</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1749" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1749" t="s">
-        <v>1679</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="1750" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1750" t="s">
-        <v>1682</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1751" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1751" t="s">
-        <v>1684</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1752" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1752" t="s">
-        <v>1685</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="1753" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1753" t="s">
-        <v>1686</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1754" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1754" t="s">
-        <v>1687</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1755" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1755" t="s">
-        <v>1690</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1756" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1756" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1757" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1757" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1758" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1758" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1759" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1759" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1760" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1760" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="1761" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1761" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1762" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1762" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="1763" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1763" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1764" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1764" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="1765" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1765" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="1766" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1766" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1767" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1767" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1768" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1768" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1769" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1769" t="s">
         <v>1692</v>
       </c>
     </row>
